--- a/汽柴煤油2.0/data_input/PE-SC.xlsx
+++ b/汽柴煤油2.0/data_input/PE-SC.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1863"/>
+  <dimension ref="A1:D1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26441,6 +26441,34 @@
         <v>-858.8699</v>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>3255.8</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>-847.2904</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>3281</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>-831.1604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
